--- a/Assignment 1/Story #2.xlsx
+++ b/Assignment 1/Story #2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edna\Desktop\Softray Sprint\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC7E14-A9F4-4CF8-BE5D-8A1B26B2C723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE48329-0B58-4034-8CF8-15FE7006FEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00289BA0-D13A-4CA8-BDCD-D4D84765ABF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00289BA0-D13A-4CA8-BDCD-D4D84765ABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke test" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="181">
   <si>
     <t>Test case ID</t>
   </si>
@@ -123,9 +123,6 @@
     <t>NEG007</t>
   </si>
   <si>
-    <t>POS007</t>
-  </si>
-  <si>
     <t>Correct input</t>
   </si>
   <si>
@@ -153,34 +150,16 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>is successfully opened in Google Chrome browser</t>
-  </si>
-  <si>
     <t>Displaying Sign in form content</t>
   </si>
   <si>
-    <t>This test is performed to ensure that the Sign in form</t>
-  </si>
-  <si>
     <t>Sign in page successfully opened</t>
   </si>
   <si>
-    <t>This test is performed to ensure that the Sign in page</t>
-  </si>
-  <si>
     <t>"Sign in with Google" button displayed</t>
   </si>
   <si>
     <t>"Sign in" button displayed</t>
-  </si>
-  <si>
-    <t>contains all fields required and givs the user an option</t>
-  </si>
-  <si>
-    <t>to sign in with Google</t>
-  </si>
-  <si>
-    <t>contains the "Sign in" button</t>
   </si>
   <si>
     <t>1. User is registered</t>
@@ -894,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -919,9 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1274,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA521C3E-1A4A-4416-B6DD-E2F803E3EE66}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,23 +1273,23 @@
     <col min="15" max="15" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
@@ -1358,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1366,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1375,131 +1351,121 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="34" t="s">
-        <v>43</v>
-      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19"/>
       <c r="H8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="24" t="s">
-        <v>39</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
       <c r="H9" s="3"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="24"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
       <c r="I10" s="3"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="28"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="23" t="s">
-        <v>128</v>
+      <c r="F12" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="20" t="s">
-        <v>132</v>
+      <c r="H12" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="34" t="s">
+      <c r="N12" s="22"/>
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F13" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F14" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="29"/>
+      <c r="F15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -1507,7 +1473,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1515,202 +1481,198 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="36"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="H19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="H20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="F23" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="23" t="s">
+      <c r="H23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="H19" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="H20" t="s">
-        <v>144</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="35"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="36"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="O22" s="22"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="F23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="O23" s="24"/>
+      <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" s="24"/>
+        <v>134</v>
+      </c>
+      <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
-      </c>
-      <c r="O25" s="24"/>
+        <v>150</v>
+      </c>
+      <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="O26" s="24"/>
+        <v>145</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="23"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="O27" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="36"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E9BB71-C469-403B-848E-349BE97BAC1B}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A30" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,23 +1707,23 @@
     <col min="15" max="15" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
@@ -1806,15 +1768,15 @@
         <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1823,153 +1785,153 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="22"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="23" t="s">
-        <v>52</v>
+      <c r="H9" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="H10" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
-        <v>148</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
+        <v>141</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="12" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="28"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="24"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="H15" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="11"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="24"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -1984,8 +1946,8 @@
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="24"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -2001,15 +1963,15 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="25"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -2019,33 +1981,33 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="24"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -2056,8 +2018,8 @@
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="24"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -2067,14 +2029,14 @@
       <c r="E21" s="10"/>
       <c r="F21" s="12"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="11"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -2090,7 +2052,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="25"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2098,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -2108,91 +2070,91 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>31</v>
+      <c r="I23" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="24"/>
+      <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="H26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="H27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -2203,57 +2165,57 @@
       <c r="F28" s="12"/>
       <c r="G28" s="10"/>
       <c r="H28" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="26" t="s">
-        <v>77</v>
+      <c r="J28" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="11"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="29"/>
-    </row>
-    <row r="29" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="30"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="23"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="29"/>
-    </row>
-    <row r="30" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="23"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="29"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -2264,100 +2226,100 @@
       <c r="F31" s="13"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="36"/>
-    </row>
-    <row r="32" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="24"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>172</v>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="L32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="24"/>
-    </row>
-    <row r="33" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="H33" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="O33" s="24"/>
-    </row>
-    <row r="34" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="20" t="s">
-        <v>176</v>
+      <c r="H33" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="L34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="24"/>
-    </row>
-    <row r="35" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="D35" s="3"/>
-      <c r="H35" s="20" t="s">
-        <v>177</v>
+      <c r="H35" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="L35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="24"/>
-    </row>
-    <row r="36" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
@@ -2368,33 +2330,33 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="16" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="26" t="s">
-        <v>186</v>
+      <c r="H37" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="L37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="24"/>
+      <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="F38" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="24"/>
+        <v>176</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="N38" s="19"/>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -2405,8 +2367,8 @@
       <c r="K39" s="10"/>
       <c r="L39" s="11"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="24"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="23"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -2420,8 +2382,8 @@
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="24"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="23"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
@@ -2437,79 +2399,8 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="25"/>
+      <c r="N41" s="24"/>
       <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="L42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="24"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="H43" s="26"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="24"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="H44" s="20"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="24"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="24"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2521,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95A0DB-AB3F-4532-8A04-9177057776F3}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2544,23 +2435,23 @@
     <col min="15" max="15" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
@@ -2605,15 +2496,15 @@
         <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2622,81 +2513,81 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>49</v>
+        <v>83</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="34"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="28"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2706,54 +2597,54 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="34"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="33"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="35"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2761,16 +2652,16 @@
       <c r="C15" s="10"/>
       <c r="D15" s="12"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="10"/>
       <c r="L15" s="11"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="29"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -2786,7 +2677,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="25"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2794,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2804,46 +2695,46 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="34"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="H19" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="11"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="35"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
@@ -2852,14 +2743,14 @@
       <c r="E20" s="10"/>
       <c r="F20" s="12"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="35"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -2869,21 +2760,21 @@
       <c r="E21" s="5"/>
       <c r="F21" s="13"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="36"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -2893,54 +2784,54 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="G22" s="20"/>
       <c r="H22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="34"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="19"/>
+      <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="23" t="s">
-        <v>105</v>
+        <v>46</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="11"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="35"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -2949,15 +2840,15 @@
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="29"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -2965,23 +2856,23 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="36"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="35"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -2991,42 +2882,42 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="34"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="33"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F28" s="17"/>
       <c r="H28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="H29" s="3"/>
-      <c r="J29" s="20" t="s">
-        <v>104</v>
+      <c r="J29" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="11"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="35"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
@@ -3036,14 +2927,14 @@
       <c r="F30" s="12"/>
       <c r="G30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="20" t="s">
-        <v>50</v>
+      <c r="J30" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="35"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="34"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -3055,21 +2946,21 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="25" t="s">
-        <v>105</v>
+      <c r="J31" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="36"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -3079,50 +2970,50 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>146</v>
+      </c>
+      <c r="G32" s="20"/>
       <c r="H32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="34"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="33"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="N33" s="20"/>
-      <c r="O33" s="24"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="H34" s="23" t="s">
-        <v>107</v>
+      <c r="H34" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="35"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="34"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -3132,14 +3023,14 @@
       <c r="E35" s="10"/>
       <c r="F35" s="12"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="11"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="35"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="34"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
@@ -3149,21 +3040,21 @@
       <c r="E36" s="5"/>
       <c r="F36" s="13"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="36"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="35"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -3173,50 +3064,50 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="34"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="33"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="24"/>
+      <c r="B38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" s="19"/>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="H39" s="19" t="s">
-        <v>84</v>
+      <c r="H39" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="11"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="35"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="34"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
@@ -3224,16 +3115,16 @@
       <c r="D40" s="12"/>
       <c r="E40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="23" t="s">
-        <v>86</v>
+      <c r="H40" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="35"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="34"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -3243,23 +3134,23 @@
       <c r="E41" s="5"/>
       <c r="F41" s="13"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="25" t="s">
-        <v>111</v>
+      <c r="H41" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="36"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="35"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -3269,57 +3160,57 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>159</v>
+        <v>65</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="J42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="34"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="33"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>83</v>
+      <c r="B43" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>160</v>
-      </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="24"/>
+        <v>153</v>
+      </c>
+      <c r="N43" s="19"/>
+      <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="H44" s="19" t="s">
-        <v>114</v>
+      <c r="H44" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="11"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="35"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="34"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -3328,16 +3219,16 @@
       <c r="D45" s="12"/>
       <c r="E45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="23" t="s">
-        <v>86</v>
+      <c r="H45" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="11"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="35"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -3353,15 +3244,15 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="36"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="35"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
@@ -3371,55 +3262,55 @@
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="34"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="33"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>83</v>
+      <c r="B48" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
-      </c>
-      <c r="N48" s="20"/>
-      <c r="O48" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="N48" s="19"/>
+      <c r="O48" s="34"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
-      <c r="H49" s="19" t="s">
-        <v>84</v>
+      <c r="H49" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="11"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="35"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -3428,34 +3319,34 @@
       <c r="D50" s="12"/>
       <c r="E50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="23" t="s">
-        <v>86</v>
+      <c r="H50" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="11"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="35"/>
-    </row>
-    <row r="51" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="22"/>
+      <c r="O50" s="34"/>
+    </row>
+    <row r="51" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="35"/>
+      <c r="E51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -3465,193 +3356,193 @@
       <c r="E52" s="5"/>
       <c r="F52" s="13"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="25" t="s">
-        <v>85</v>
+      <c r="H52" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="36"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="35"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="24"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="23"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="24"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="24"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="23"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="24"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="23"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="24"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="23"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="23"/>
+      <c r="P58" s="22"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O59" s="37"/>
-      <c r="P59" s="23"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="22"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O60" s="37"/>
-      <c r="P60" s="23"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="22"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O61" s="37"/>
-      <c r="P61" s="23"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="22"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="23"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="22"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="23"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="22"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="23"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="22"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="23"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="22"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="23"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="22"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="23"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="22"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
